--- a/src/test/resources/Excel1.xlsx
+++ b/src/test/resources/Excel1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10680" windowHeight="2976" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9408" windowHeight="3552" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mobiles" sheetId="1" r:id="rId1"/>
@@ -352,7 +352,7 @@
     <t>sharth1234@gmail.com</t>
   </si>
   <si>
-    <t>BharathTestCampaign</t>
+    <t>SSharathTestCampaign</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/Excel1.xlsx
+++ b/src/test/resources/Excel1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9408" windowHeight="3552" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10440" windowHeight="3564" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mobiles" sheetId="1" r:id="rId1"/>
@@ -352,7 +352,7 @@
     <t>sharth1234@gmail.com</t>
   </si>
   <si>
-    <t>SSharathTestCampaign</t>
+    <t>SDSharathTestCampaign</t>
   </si>
 </sst>
 </file>
@@ -991,7 +991,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/test/resources/Excel1.xlsx
+++ b/src/test/resources/Excel1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10440" windowHeight="3564" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7884" windowHeight="3564" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mobiles" sheetId="1" r:id="rId1"/>
@@ -991,13 +991,13 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" customWidth="1"/>
     <col min="3" max="3" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>

--- a/src/test/resources/Excel1.xlsx
+++ b/src/test/resources/Excel1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7884" windowHeight="3564" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11712" windowHeight="3564" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mobiles" sheetId="1" r:id="rId1"/>
@@ -352,7 +352,7 @@
     <t>sharth1234@gmail.com</t>
   </si>
   <si>
-    <t>SDSharathTestCampaign</t>
+    <t>SDSharathTestCampaig</t>
   </si>
 </sst>
 </file>
@@ -991,7 +991,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/test/resources/Excel1.xlsx
+++ b/src/test/resources/Excel1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11712" windowHeight="3564" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10332" windowHeight="3564" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mobiles" sheetId="1" r:id="rId1"/>
@@ -352,7 +352,7 @@
     <t>sharth1234@gmail.com</t>
   </si>
   <si>
-    <t>SDSharathTestCampaig</t>
+    <t>SDSharathTestCampai</t>
   </si>
 </sst>
 </file>
@@ -991,7 +991,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
